--- a/netCrypto.xlsx
+++ b/netCrypto.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{92A2083E-AA87-4C5D-919F-FA2501677FCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{03098B53-CA52-41E9-BA8B-A4C17729768C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="45" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="20">
   <si>
     <t>Transaction Type</t>
   </si>
@@ -34,6 +34,15 @@
     <t>USD Amount</t>
   </si>
   <si>
+    <t>Withdrawal</t>
+  </si>
+  <si>
+    <t>Wiretransfer</t>
+  </si>
+  <si>
+    <t>Anywires</t>
+  </si>
+  <si>
     <t>Deposit</t>
   </si>
   <si>
@@ -44,15 +53,6 @@
   </si>
   <si>
     <t>BTC</t>
-  </si>
-  <si>
-    <t>Withdrawal</t>
-  </si>
-  <si>
-    <t>Wiretransfer</t>
-  </si>
-  <si>
-    <t>Anywires</t>
   </si>
   <si>
     <t>ERC</t>
@@ -473,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB121"/>
+  <dimension ref="A1:AB125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="U1" sqref="U1:AB1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -561,160 +561,160 @@
       </c>
       <c r="S2" s="2"/>
       <c r="T2">
-        <v>2034.2399</v>
+        <v>134.29249999999999</v>
       </c>
       <c r="AB2" s="2"/>
     </row>
     <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K3" s="2"/>
       <c r="N3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3">
-        <v>1744.73</v>
+        <v>255.1867</v>
       </c>
       <c r="AB3" s="2"/>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K4" s="2"/>
       <c r="N4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4">
-        <v>1193.48</v>
+        <v>5242.2847000000002</v>
       </c>
       <c r="AB4" s="2"/>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K5" s="2"/>
       <c r="N5" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5">
-        <v>488.43</v>
+        <v>2127.8861000000002</v>
       </c>
       <c r="AB5" s="2"/>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K6" s="2"/>
       <c r="N6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P6" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6">
-        <v>590.96400000000006</v>
+        <v>2034.2399</v>
       </c>
       <c r="AB6" s="2"/>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K7" s="2"/>
       <c r="N7" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7">
-        <v>615.30999999999995</v>
+        <v>1744.73</v>
       </c>
       <c r="AB7" s="2"/>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K8" s="2"/>
       <c r="N8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8">
-        <v>858.89599999999996</v>
+        <v>1193.48</v>
       </c>
       <c r="AB8" s="2"/>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K9" s="2"/>
       <c r="N9" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P9" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9">
-        <v>6071.9071999999996</v>
+        <v>488.43</v>
       </c>
       <c r="AB9" s="2"/>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K10" s="2"/>
       <c r="N10" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10">
-        <v>8495.6535000000003</v>
+        <v>590.96400000000006</v>
       </c>
       <c r="AB10" s="2"/>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K11" s="2"/>
       <c r="N11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P11" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11">
-        <v>1835.5251000000001</v>
+        <v>615.30999999999995</v>
       </c>
       <c r="AB11" s="2"/>
     </row>
@@ -731,143 +731,143 @@
       </c>
       <c r="S12" s="2"/>
       <c r="T12">
-        <v>2268.7620000000002</v>
+        <v>858.89599999999996</v>
       </c>
       <c r="AB12" s="2"/>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K13" s="2"/>
       <c r="N13" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13">
-        <v>2511.3564999999999</v>
+        <v>6071.9071999999996</v>
       </c>
       <c r="AB13" s="2"/>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K14" s="2"/>
       <c r="N14" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P14" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S14" s="2"/>
       <c r="T14">
-        <v>16441.263999999999</v>
+        <v>8495.6535000000003</v>
       </c>
       <c r="AB14" s="2"/>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K15" s="2"/>
       <c r="N15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P15" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15">
-        <v>2184.7337000000002</v>
+        <v>1835.5251000000001</v>
       </c>
       <c r="AB15" s="2"/>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K16" s="2"/>
       <c r="N16" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P16" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16">
-        <v>3799.3838999999998</v>
+        <v>2268.7620000000002</v>
       </c>
       <c r="AB16" s="2"/>
     </row>
     <row r="17" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K17" s="2"/>
       <c r="N17" t="s">
         <v>5</v>
       </c>
       <c r="P17" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S17" s="2"/>
       <c r="T17">
-        <v>250.001</v>
+        <v>2511.3564999999999</v>
       </c>
       <c r="AB17" s="2"/>
     </row>
     <row r="18" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K18" s="2"/>
       <c r="N18" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P18" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S18" s="2"/>
       <c r="T18">
-        <v>1160.4825000000001</v>
+        <v>16441.263999999999</v>
       </c>
       <c r="AB18" s="2"/>
     </row>
     <row r="19" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K19" s="2"/>
       <c r="N19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P19" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S19" s="2"/>
       <c r="T19">
-        <v>2143.1999999999998</v>
+        <v>2184.7337000000002</v>
       </c>
       <c r="AB19" s="2"/>
     </row>
     <row r="20" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K20" s="2"/>
       <c r="N20" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P20" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20">
-        <v>987.87950000000001</v>
+        <v>3799.3838999999998</v>
       </c>
       <c r="AB20" s="2"/>
     </row>
@@ -877,88 +877,88 @@
       </c>
       <c r="K21" s="2"/>
       <c r="N21" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P21" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S21" s="2"/>
       <c r="T21">
-        <v>4160.4053999999996</v>
+        <v>250.001</v>
       </c>
       <c r="AB21" s="2"/>
     </row>
     <row r="22" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K22" s="2"/>
       <c r="N22" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P22" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S22" s="2"/>
       <c r="T22">
-        <v>535.005</v>
+        <v>1160.4825000000001</v>
       </c>
       <c r="AB22" s="2"/>
     </row>
     <row r="23" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E23" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K23" s="2"/>
       <c r="N23" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="S23" s="2"/>
       <c r="T23">
-        <v>10713.8</v>
+        <v>2143.1999999999998</v>
       </c>
       <c r="AB23" s="2"/>
     </row>
     <row r="24" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E24" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K24" s="2"/>
       <c r="N24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P24" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24">
-        <v>8239.3397000000004</v>
+        <v>987.87950000000001</v>
       </c>
       <c r="AB24" s="2"/>
     </row>
     <row r="25" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K25" s="2"/>
       <c r="N25" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P25" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S25" s="2"/>
       <c r="T25">
-        <v>1190.6872000000001</v>
+        <v>4160.4053999999996</v>
       </c>
       <c r="AB25" s="2"/>
     </row>
     <row r="26" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E26" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K26" s="2"/>
       <c r="N26" t="s">
@@ -969,7 +969,7 @@
       </c>
       <c r="S26" s="2"/>
       <c r="T26">
-        <v>2587.1082999999999</v>
+        <v>535.005</v>
       </c>
       <c r="AB26" s="2"/>
     </row>
@@ -982,96 +982,96 @@
         <v>5</v>
       </c>
       <c r="P27" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="S27" s="2"/>
       <c r="T27">
-        <v>2070.7564000000002</v>
+        <v>10713.8</v>
       </c>
       <c r="AB27" s="2"/>
     </row>
     <row r="28" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E28" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K28" s="2"/>
       <c r="N28" t="s">
         <v>5</v>
       </c>
       <c r="P28" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S28" s="2"/>
       <c r="T28">
-        <v>2337.0376999999999</v>
+        <v>8239.3397000000004</v>
       </c>
       <c r="AB28" s="2"/>
     </row>
     <row r="29" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K29" s="2"/>
       <c r="N29" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P29" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S29" s="2"/>
       <c r="T29">
-        <v>750</v>
+        <v>1190.6872000000001</v>
       </c>
       <c r="AB29" s="2"/>
     </row>
     <row r="30" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E30" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K30" s="2"/>
       <c r="N30" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P30" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S30" s="2"/>
       <c r="T30">
-        <v>5192.0780999999997</v>
+        <v>2587.1082999999999</v>
       </c>
       <c r="AB30" s="2"/>
     </row>
     <row r="31" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E31" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K31" s="2"/>
       <c r="N31" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S31" s="2"/>
       <c r="T31">
-        <v>6323.9682000000003</v>
+        <v>2070.7564000000002</v>
       </c>
       <c r="AB31" s="2"/>
     </row>
     <row r="32" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K32" s="2"/>
       <c r="N32" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P32" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S32" s="2"/>
       <c r="T32">
-        <v>233.00729999999999</v>
+        <v>2337.0376999999999</v>
       </c>
       <c r="AB32" s="2"/>
     </row>
@@ -1081,133 +1081,133 @@
       </c>
       <c r="K33" s="2"/>
       <c r="N33" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P33" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S33" s="2"/>
       <c r="T33">
-        <v>8516.1147000000001</v>
+        <v>750</v>
       </c>
       <c r="AB33" s="2"/>
     </row>
     <row r="34" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E34" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K34" s="2"/>
       <c r="N34" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P34" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S34" s="2"/>
       <c r="T34">
-        <v>187.25640000000001</v>
+        <v>5192.0780999999997</v>
       </c>
       <c r="AB34" s="2"/>
     </row>
     <row r="35" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E35" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K35" s="2"/>
       <c r="N35" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P35" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S35" s="2"/>
       <c r="T35">
-        <v>3792.7755000000002</v>
+        <v>6323.9682000000003</v>
       </c>
       <c r="AB35" s="2"/>
     </row>
     <row r="36" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E36" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K36" s="2"/>
       <c r="N36" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P36" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S36" s="2"/>
       <c r="T36">
-        <v>3145.1669999999999</v>
+        <v>233.00729999999999</v>
       </c>
       <c r="AB36" s="2"/>
     </row>
     <row r="37" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E37" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K37" s="2"/>
       <c r="N37" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P37" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S37" s="2"/>
       <c r="T37">
-        <v>269.33499999999998</v>
+        <v>8516.1147000000001</v>
       </c>
       <c r="AB37" s="2"/>
     </row>
     <row r="38" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E38" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K38" s="2"/>
       <c r="N38" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P38" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S38" s="2"/>
       <c r="T38">
-        <v>2092.8744000000002</v>
+        <v>187.25640000000001</v>
       </c>
       <c r="AB38" s="2"/>
     </row>
     <row r="39" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K39" s="2"/>
       <c r="N39" t="s">
         <v>5</v>
       </c>
       <c r="P39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S39" s="2"/>
       <c r="T39">
-        <v>107.779</v>
+        <v>3792.7755000000002</v>
       </c>
       <c r="AB39" s="2"/>
     </row>
     <row r="40" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E40" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K40" s="2"/>
       <c r="N40" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P40" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S40" s="2"/>
       <c r="T40">
-        <v>12631.7</v>
+        <v>3145.1669999999999</v>
       </c>
       <c r="AB40" s="2"/>
     </row>
@@ -1217,31 +1217,31 @@
       </c>
       <c r="K41" s="2"/>
       <c r="N41" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P41" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S41" s="2"/>
       <c r="T41">
-        <v>2526.2386999999999</v>
+        <v>269.33499999999998</v>
       </c>
       <c r="AB41" s="2"/>
     </row>
     <row r="42" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E42" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K42" s="2"/>
       <c r="N42" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P42" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="S42" s="2"/>
       <c r="T42">
-        <v>250</v>
+        <v>2092.8744000000002</v>
       </c>
       <c r="AB42" s="2"/>
     </row>
@@ -1251,48 +1251,48 @@
       </c>
       <c r="K43" s="2"/>
       <c r="N43" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P43" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="S43" s="2"/>
       <c r="T43">
-        <v>219.0179</v>
+        <v>107.779</v>
       </c>
       <c r="AB43" s="2"/>
     </row>
     <row r="44" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E44" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K44" s="2"/>
       <c r="N44" t="s">
         <v>5</v>
       </c>
       <c r="P44" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S44" s="2"/>
       <c r="T44">
-        <v>326.95830000000001</v>
+        <v>12631.7</v>
       </c>
       <c r="AB44" s="2"/>
     </row>
     <row r="45" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E45" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K45" s="2"/>
       <c r="N45" t="s">
         <v>5</v>
       </c>
       <c r="P45" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="S45" s="2"/>
       <c r="T45">
-        <v>283.64400000000001</v>
+        <v>2526.2386999999999</v>
       </c>
       <c r="AB45" s="2"/>
     </row>
@@ -1302,167 +1302,167 @@
       </c>
       <c r="K46" s="2"/>
       <c r="N46" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P46" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="S46" s="2"/>
       <c r="T46">
-        <v>1216.3599999999999</v>
+        <v>250</v>
       </c>
       <c r="AB46" s="2"/>
     </row>
     <row r="47" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E47" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K47" s="2"/>
       <c r="N47" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P47" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S47" s="2"/>
       <c r="T47">
-        <v>7576.5357999999997</v>
+        <v>219.0179</v>
       </c>
       <c r="AB47" s="2"/>
     </row>
     <row r="48" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E48" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K48" s="2"/>
       <c r="N48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P48" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="S48" s="2"/>
       <c r="T48">
-        <v>269.6825</v>
+        <v>326.95830000000001</v>
       </c>
       <c r="AB48" s="2"/>
     </row>
     <row r="49" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E49" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K49" s="2"/>
       <c r="N49" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P49" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S49" s="2"/>
       <c r="T49">
-        <v>2759.55</v>
+        <v>283.64400000000001</v>
       </c>
       <c r="AB49" s="2"/>
     </row>
     <row r="50" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E50" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K50" s="2"/>
       <c r="N50" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P50" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S50" s="2"/>
       <c r="T50">
-        <v>272.68</v>
+        <v>1216.3599999999999</v>
       </c>
       <c r="AB50" s="2"/>
     </row>
     <row r="51" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E51" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K51" s="2"/>
       <c r="N51" t="s">
         <v>5</v>
       </c>
       <c r="P51" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S51" s="2"/>
       <c r="T51">
-        <v>2863.3768</v>
+        <v>7576.5357999999997</v>
       </c>
       <c r="AB51" s="2"/>
     </row>
     <row r="52" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E52" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K52" s="2"/>
       <c r="N52" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P52" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S52" s="2"/>
       <c r="T52">
-        <v>1261.79</v>
+        <v>269.6825</v>
       </c>
       <c r="AB52" s="2"/>
     </row>
     <row r="53" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K53" s="2"/>
       <c r="N53" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P53" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S53" s="2"/>
       <c r="T53">
-        <v>338.95639999999997</v>
+        <v>2759.55</v>
       </c>
       <c r="AB53" s="2"/>
     </row>
     <row r="54" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E54" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K54" s="2"/>
       <c r="N54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P54" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S54" s="2"/>
       <c r="T54">
-        <v>12606.725899999999</v>
+        <v>272.68</v>
       </c>
       <c r="AB54" s="2"/>
     </row>
     <row r="55" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E55" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K55" s="2"/>
       <c r="N55" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P55" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S55" s="2"/>
       <c r="T55">
-        <v>456.68</v>
+        <v>2863.3768</v>
       </c>
       <c r="AB55" s="2"/>
     </row>
@@ -1472,150 +1472,150 @@
       </c>
       <c r="K56" s="2"/>
       <c r="N56" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P56" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S56" s="2"/>
       <c r="T56">
-        <v>1054.9099000000001</v>
+        <v>1261.79</v>
       </c>
       <c r="AB56" s="2"/>
     </row>
     <row r="57" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E57" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K57" s="2"/>
       <c r="N57" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P57" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S57" s="2"/>
       <c r="T57">
-        <v>566.72820000000002</v>
+        <v>338.95639999999997</v>
       </c>
       <c r="AB57" s="2"/>
     </row>
     <row r="58" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E58" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K58" s="2"/>
       <c r="N58" t="s">
         <v>5</v>
       </c>
       <c r="P58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S58" s="2"/>
       <c r="T58">
-        <v>8511.7579999999998</v>
+        <v>12606.725899999999</v>
       </c>
       <c r="AB58" s="2"/>
     </row>
     <row r="59" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E59" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K59" s="2"/>
       <c r="N59" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P59" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S59" s="2"/>
       <c r="T59">
-        <v>9067.7985000000008</v>
+        <v>456.68</v>
       </c>
       <c r="AB59" s="2"/>
     </row>
     <row r="60" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E60" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K60" s="2"/>
       <c r="N60" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P60" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S60" s="2"/>
       <c r="T60">
-        <v>228.24</v>
+        <v>1054.9099000000001</v>
       </c>
       <c r="AB60" s="2"/>
     </row>
     <row r="61" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E61" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K61" s="2"/>
       <c r="N61" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P61" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S61" s="2"/>
       <c r="T61">
-        <v>269.65499999999997</v>
+        <v>566.72820000000002</v>
       </c>
       <c r="AB61" s="2"/>
     </row>
     <row r="62" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K62" s="2"/>
       <c r="N62" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P62" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="S62" s="2"/>
       <c r="T62">
-        <v>269.64249999999998</v>
+        <v>8511.7579999999998</v>
       </c>
       <c r="AB62" s="2"/>
     </row>
     <row r="63" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E63" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K63" s="2"/>
       <c r="N63" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P63" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="S63" s="2"/>
       <c r="T63">
-        <v>12625.8388</v>
+        <v>9067.7985000000008</v>
       </c>
       <c r="AB63" s="2"/>
     </row>
     <row r="64" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E64" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K64" s="2"/>
       <c r="N64" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P64" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S64" s="2"/>
       <c r="T64">
-        <v>1264.4450999999999</v>
+        <v>228.24</v>
       </c>
       <c r="AB64" s="2"/>
     </row>
@@ -1625,14 +1625,14 @@
       </c>
       <c r="K65" s="2"/>
       <c r="N65" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P65" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S65" s="2"/>
       <c r="T65">
-        <v>506.15089999999998</v>
+        <v>269.65499999999997</v>
       </c>
       <c r="AB65" s="2"/>
     </row>
@@ -1642,133 +1642,133 @@
       </c>
       <c r="K66" s="2"/>
       <c r="N66" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P66" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="S66" s="2"/>
       <c r="T66">
-        <v>13994.11</v>
+        <v>269.64249999999998</v>
       </c>
       <c r="AB66" s="2"/>
     </row>
     <row r="67" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E67" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K67" s="2"/>
       <c r="N67" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P67" t="s">
         <v>12</v>
       </c>
       <c r="S67" s="2"/>
       <c r="T67">
-        <v>2525.3888999999999</v>
+        <v>12625.8388</v>
       </c>
       <c r="AB67" s="2"/>
     </row>
     <row r="68" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E68" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K68" s="2"/>
       <c r="N68" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P68" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S68" s="2"/>
       <c r="T68">
-        <v>2325.7051000000001</v>
+        <v>1264.4450999999999</v>
       </c>
       <c r="AB68" s="2"/>
     </row>
     <row r="69" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E69" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K69" s="2"/>
       <c r="N69" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P69" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S69" s="2"/>
       <c r="T69">
-        <v>1163.6212</v>
+        <v>506.15089999999998</v>
       </c>
       <c r="AB69" s="2"/>
     </row>
     <row r="70" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E70" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K70" s="2"/>
       <c r="N70" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="P70" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S70" s="2"/>
       <c r="T70">
-        <v>6319.8140000000003</v>
+        <v>13994.11</v>
       </c>
       <c r="AB70" s="2"/>
     </row>
     <row r="71" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E71" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K71" s="2"/>
       <c r="N71" t="s">
         <v>5</v>
       </c>
       <c r="P71" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="S71" s="2"/>
       <c r="T71">
-        <v>281.66000000000003</v>
+        <v>2525.3888999999999</v>
       </c>
       <c r="AB71" s="2"/>
     </row>
     <row r="72" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E72" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K72" s="2"/>
       <c r="N72" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P72" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S72" s="2"/>
       <c r="T72">
-        <v>1168.5009</v>
+        <v>2325.7051000000001</v>
       </c>
       <c r="AB72" s="2"/>
     </row>
     <row r="73" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E73" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K73" s="2"/>
       <c r="N73" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P73" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S73" s="2"/>
       <c r="T73">
-        <v>1479.3526999999999</v>
+        <v>1163.6212</v>
       </c>
       <c r="AB73" s="2"/>
     </row>
@@ -1785,296 +1785,296 @@
       </c>
       <c r="S74" s="2"/>
       <c r="T74">
-        <v>4192.6170000000002</v>
+        <v>6319.8140000000003</v>
       </c>
       <c r="AB74" s="2"/>
     </row>
     <row r="75" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E75" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K75" s="2"/>
       <c r="N75" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P75" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S75" s="2"/>
       <c r="T75">
-        <v>625.74890000000005</v>
+        <v>281.66000000000003</v>
       </c>
       <c r="AB75" s="2"/>
     </row>
     <row r="76" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E76" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K76" s="2"/>
       <c r="N76" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P76" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S76" s="2"/>
       <c r="T76">
-        <v>2093.9180000000001</v>
+        <v>1168.5009</v>
       </c>
       <c r="AB76" s="2"/>
     </row>
     <row r="77" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E77" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K77" s="2"/>
       <c r="N77" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P77" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S77" s="2"/>
       <c r="T77">
-        <v>711.81669999999997</v>
+        <v>1479.3526999999999</v>
       </c>
       <c r="AB77" s="2"/>
     </row>
     <row r="78" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E78" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K78" s="2"/>
       <c r="N78" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P78" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S78" s="2"/>
       <c r="T78">
-        <v>2307.1005</v>
+        <v>4192.6170000000002</v>
       </c>
       <c r="AB78" s="2"/>
     </row>
     <row r="79" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E79" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K79" s="2"/>
       <c r="N79" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P79" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S79" s="2"/>
       <c r="T79">
-        <v>1150.3203000000001</v>
+        <v>625.74890000000005</v>
       </c>
       <c r="AB79" s="2"/>
     </row>
     <row r="80" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E80" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K80" s="2"/>
       <c r="N80" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P80" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S80" s="2"/>
       <c r="T80">
-        <v>1157.0929000000001</v>
+        <v>2093.9180000000001</v>
       </c>
       <c r="AB80" s="2"/>
     </row>
     <row r="81" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E81" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K81" s="2"/>
       <c r="N81" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P81" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="S81" s="2"/>
       <c r="T81">
-        <v>2314.66</v>
+        <v>711.81669999999997</v>
       </c>
       <c r="AB81" s="2"/>
     </row>
     <row r="82" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E82" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K82" s="2"/>
       <c r="N82" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P82" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S82" s="2"/>
       <c r="T82">
-        <v>4988.3356000000003</v>
+        <v>2307.1005</v>
       </c>
       <c r="AB82" s="2"/>
     </row>
     <row r="83" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E83" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K83" s="2"/>
       <c r="N83" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P83" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="S83" s="2"/>
       <c r="T83">
-        <v>6266.1853000000001</v>
+        <v>1150.3203000000001</v>
       </c>
       <c r="AB83" s="2"/>
     </row>
     <row r="84" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E84" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K84" s="2"/>
       <c r="N84" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P84" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="S84" s="2"/>
       <c r="T84">
-        <v>1163.8599999999999</v>
+        <v>1157.0929000000001</v>
       </c>
       <c r="AB84" s="2"/>
     </row>
     <row r="85" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E85" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K85" s="2"/>
       <c r="N85" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P85" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="S85" s="2"/>
       <c r="T85">
-        <v>245.7345</v>
+        <v>2314.66</v>
       </c>
       <c r="AB85" s="2"/>
     </row>
     <row r="86" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E86" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K86" s="2"/>
       <c r="N86" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P86" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S86" s="2"/>
       <c r="T86">
-        <v>977.07</v>
+        <v>4988.3356000000003</v>
       </c>
       <c r="AB86" s="2"/>
     </row>
     <row r="87" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E87" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K87" s="2"/>
       <c r="N87" t="s">
         <v>5</v>
       </c>
       <c r="P87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="S87" s="2"/>
       <c r="T87">
-        <v>537.54</v>
+        <v>6266.1853000000001</v>
       </c>
       <c r="AB87" s="2"/>
     </row>
     <row r="88" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E88" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K88" s="2"/>
       <c r="N88" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P88" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S88" s="2"/>
       <c r="T88">
-        <v>537.70500000000004</v>
+        <v>1163.8599999999999</v>
       </c>
       <c r="AB88" s="2"/>
     </row>
     <row r="89" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E89" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K89" s="2"/>
       <c r="N89" t="s">
         <v>5</v>
       </c>
       <c r="P89" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="S89" s="2"/>
       <c r="T89">
-        <v>21501.599999999999</v>
+        <v>245.7345</v>
       </c>
       <c r="AB89" s="2"/>
     </row>
     <row r="90" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E90" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K90" s="2"/>
       <c r="N90" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P90" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S90" s="2"/>
       <c r="T90">
-        <v>521.05949999999996</v>
+        <v>977.07</v>
       </c>
       <c r="AB90" s="2"/>
     </row>
     <row r="91" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E91" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K91" s="2"/>
       <c r="N91" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P91" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S91" s="2"/>
       <c r="T91">
-        <v>254.648</v>
+        <v>537.54</v>
       </c>
       <c r="AB91" s="2"/>
     </row>
@@ -2084,48 +2084,48 @@
       </c>
       <c r="K92" s="2"/>
       <c r="N92" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P92" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S92" s="2"/>
       <c r="T92">
-        <v>473.47</v>
+        <v>537.70500000000004</v>
       </c>
       <c r="AB92" s="2"/>
     </row>
     <row r="93" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E93" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K93" s="2"/>
       <c r="N93" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P93" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S93" s="2"/>
       <c r="T93">
-        <v>5000</v>
+        <v>21501.599999999999</v>
       </c>
       <c r="AB93" s="2"/>
     </row>
     <row r="94" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E94" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K94" s="2"/>
       <c r="N94" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P94" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S94" s="2"/>
       <c r="T94">
-        <v>5390.25</v>
+        <v>521.05949999999996</v>
       </c>
       <c r="AB94" s="2"/>
     </row>
@@ -2135,31 +2135,31 @@
       </c>
       <c r="K95" s="2"/>
       <c r="N95" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P95" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="S95" s="2"/>
       <c r="T95">
-        <v>618.09</v>
+        <v>254.648</v>
       </c>
       <c r="AB95" s="2"/>
     </row>
     <row r="96" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E96" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K96" s="2"/>
       <c r="N96" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P96" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="S96" s="2"/>
       <c r="T96">
-        <v>269.67750000000001</v>
+        <v>473.47</v>
       </c>
       <c r="AB96" s="2"/>
     </row>
@@ -2169,14 +2169,14 @@
       </c>
       <c r="K97" s="2"/>
       <c r="N97" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P97" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S97" s="2"/>
       <c r="T97">
-        <v>512.35</v>
+        <v>5000</v>
       </c>
       <c r="AB97" s="2"/>
     </row>
@@ -2186,31 +2186,31 @@
       </c>
       <c r="K98" s="2"/>
       <c r="N98" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P98" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S98" s="2"/>
       <c r="T98">
-        <v>2060.9513999999999</v>
+        <v>5390.25</v>
       </c>
       <c r="AB98" s="2"/>
     </row>
     <row r="99" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E99" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K99" s="2"/>
       <c r="N99" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P99" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S99" s="2"/>
       <c r="T99">
-        <v>8164.6464999999998</v>
+        <v>618.09</v>
       </c>
       <c r="AB99" s="2"/>
     </row>
@@ -2220,71 +2220,71 @@
       </c>
       <c r="K100" s="2"/>
       <c r="N100" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="P100" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="S100" s="2"/>
       <c r="T100">
-        <v>541.71</v>
+        <v>269.67750000000001</v>
       </c>
       <c r="AB100" s="2"/>
     </row>
     <row r="101" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E101" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K101" s="2"/>
       <c r="N101" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P101" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="S101" s="2"/>
       <c r="T101">
-        <v>272.35500000000002</v>
+        <v>512.35</v>
       </c>
       <c r="AB101" s="2"/>
     </row>
     <row r="102" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E102" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K102" s="2"/>
       <c r="N102" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P102" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S102" s="2"/>
       <c r="T102">
-        <v>532.89419999999996</v>
+        <v>2060.9513999999999</v>
       </c>
       <c r="AB102" s="2"/>
     </row>
     <row r="103" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E103" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K103" s="2"/>
       <c r="N103" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P103" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S103" s="2"/>
       <c r="T103">
-        <v>2000.5583999999999</v>
+        <v>8164.6464999999998</v>
       </c>
       <c r="AB103" s="2"/>
     </row>
     <row r="104" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E104" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K104" s="2"/>
       <c r="N104" t="s">
@@ -2295,75 +2295,75 @@
       </c>
       <c r="S104" s="2"/>
       <c r="T104">
-        <v>500</v>
+        <v>541.71</v>
       </c>
       <c r="AB104" s="2"/>
     </row>
     <row r="105" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E105" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K105" s="2"/>
       <c r="N105" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="P105" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="S105" s="2"/>
       <c r="T105">
-        <v>250</v>
+        <v>272.35500000000002</v>
       </c>
       <c r="AB105" s="2"/>
     </row>
     <row r="106" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E106" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K106" s="2"/>
       <c r="N106" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P106" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S106" s="2"/>
       <c r="T106">
-        <v>1000.1964</v>
+        <v>532.89419999999996</v>
       </c>
       <c r="AB106" s="2"/>
     </row>
     <row r="107" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E107" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K107" s="2"/>
       <c r="N107" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P107" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S107" s="2"/>
       <c r="T107">
-        <v>250</v>
+        <v>2000.5583999999999</v>
       </c>
       <c r="AB107" s="2"/>
     </row>
     <row r="108" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E108" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K108" s="2"/>
       <c r="N108" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P108" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S108" s="2"/>
       <c r="T108">
-        <v>2000</v>
+        <v>500</v>
       </c>
       <c r="AB108" s="2"/>
     </row>
@@ -2373,14 +2373,14 @@
       </c>
       <c r="K109" s="2"/>
       <c r="N109" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P109" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="S109" s="2"/>
       <c r="T109">
-        <v>1410.91</v>
+        <v>250</v>
       </c>
       <c r="AB109" s="2"/>
     </row>
@@ -2390,14 +2390,14 @@
       </c>
       <c r="K110" s="2"/>
       <c r="N110" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P110" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S110" s="2"/>
       <c r="T110">
-        <v>843.71820000000002</v>
+        <v>1000.1964</v>
       </c>
       <c r="AB110" s="2"/>
     </row>
@@ -2407,150 +2407,162 @@
       </c>
       <c r="K111" s="2"/>
       <c r="N111" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P111" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="S111" s="2"/>
       <c r="T111">
-        <v>1146.5808</v>
+        <v>250</v>
       </c>
       <c r="AB111" s="2"/>
     </row>
     <row r="112" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E112" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="K112" s="2"/>
       <c r="N112" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P112" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="S112" s="2"/>
       <c r="T112">
-        <v>270.23</v>
+        <v>2000</v>
       </c>
       <c r="AB112" s="2"/>
     </row>
     <row r="113" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E113" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="K113" s="2"/>
       <c r="N113" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="P113" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="S113" s="2"/>
       <c r="T113">
-        <v>312.98829999999998</v>
+        <v>1410.91</v>
       </c>
       <c r="AB113" s="2"/>
     </row>
     <row r="114" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E114" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K114" s="2"/>
       <c r="N114" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P114" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="S114" s="2"/>
       <c r="T114">
-        <v>538.73540000000003</v>
+        <v>843.71820000000002</v>
       </c>
       <c r="AB114" s="2"/>
     </row>
     <row r="115" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E115" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K115" s="2"/>
       <c r="N115" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="P115" t="s">
-        <v>11</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="S115" s="2"/>
       <c r="T115">
-        <v>53.780500000000004</v>
-      </c>
+        <v>1146.5808</v>
+      </c>
+      <c r="AB115" s="2"/>
     </row>
     <row r="116" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E116" t="s">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K116" s="2"/>
       <c r="N116" t="s">
         <v>14</v>
       </c>
       <c r="P116" t="s">
-        <v>17</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="S116" s="2"/>
       <c r="T116">
-        <v>179.44</v>
-      </c>
+        <v>270.23</v>
+      </c>
+      <c r="AB116" s="2"/>
     </row>
     <row r="117" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E117" t="s">
-        <v>8</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="K117" s="2"/>
       <c r="N117" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="P117" t="s">
-        <v>16</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="S117" s="2"/>
       <c r="T117">
-        <v>267.97000000000003</v>
-      </c>
+        <v>312.98829999999998</v>
+      </c>
+      <c r="AB117" s="2"/>
     </row>
     <row r="118" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E118" t="s">
-        <v>8</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="K118" s="2"/>
       <c r="N118" t="s">
         <v>14</v>
       </c>
       <c r="P118" t="s">
-        <v>15</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="S118" s="2"/>
       <c r="T118">
-        <v>269.255</v>
-      </c>
+        <v>538.73540000000003</v>
+      </c>
+      <c r="AB118" s="2"/>
     </row>
     <row r="119" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E119" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N119" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P119" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="T119">
-        <v>269.5575</v>
+        <v>53.780500000000004</v>
       </c>
     </row>
     <row r="120" spans="5:28" x14ac:dyDescent="0.25">
       <c r="E120" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="N120" t="s">
         <v>14</v>
       </c>
       <c r="P120" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="T120">
-        <v>269.20999999999998</v>
+        <v>179.44</v>
       </c>
     </row>
     <row r="121" spans="5:28" x14ac:dyDescent="0.25">
@@ -2561,9 +2573,65 @@
         <v>14</v>
       </c>
       <c r="P121" t="s">
+        <v>16</v>
+      </c>
+      <c r="T121">
+        <v>267.97000000000003</v>
+      </c>
+    </row>
+    <row r="122" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>4</v>
+      </c>
+      <c r="N122" t="s">
+        <v>14</v>
+      </c>
+      <c r="P122" t="s">
+        <v>15</v>
+      </c>
+      <c r="T122">
+        <v>269.255</v>
+      </c>
+    </row>
+    <row r="123" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>4</v>
+      </c>
+      <c r="N123" t="s">
+        <v>14</v>
+      </c>
+      <c r="P123" t="s">
+        <v>15</v>
+      </c>
+      <c r="T123">
+        <v>269.5575</v>
+      </c>
+    </row>
+    <row r="124" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>4</v>
+      </c>
+      <c r="N124" t="s">
+        <v>14</v>
+      </c>
+      <c r="P124" t="s">
+        <v>15</v>
+      </c>
+      <c r="T124">
+        <v>269.20999999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="5:28" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>7</v>
+      </c>
+      <c r="N125" t="s">
+        <v>14</v>
+      </c>
+      <c r="P125" t="s">
         <v>17</v>
       </c>
-      <c r="T121">
+      <c r="T125">
         <v>808.05</v>
       </c>
     </row>
